--- a/test_cases/test_cases.xlsx
+++ b/test_cases/test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12330"/>
+    <workbookView windowWidth="23040" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
     <t>tag1</t>
   </si>
   <si>
-    <t xml:space="preserve"> response[3].inbound.count=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> response[3].inbound.count</t>
+    <t xml:space="preserve"> response[2].outbound.count=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> response[2].outbound.count</t>
   </si>
   <si>
     <t>PRE_001_02</t>
@@ -161,8 +161,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -185,6 +185,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006400"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF8B0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -192,66 +199,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006400"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,39 +259,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +288,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -319,6 +304,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -334,6 +326,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -342,8 +341,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,187 +364,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +569,45 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,50 +638,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,9 +662,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -693,130 +693,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -843,7 +843,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1171,31 +1171,31 @@
   <sheetPr/>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:S5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.42592592592593" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.13888888888889" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.5740740740741" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1388888888889" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.71428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5714285714286" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.71296296296296" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5740740740741" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5740740740741" style="1" customWidth="1"/>
+    <col min="9" max="9" width="40.3333333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.57142857142857" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5714285714286" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.8571428571429" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.8857142857143" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.4285714285714" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24.7142857142857" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.85714285714286" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.57407407407407" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5740740740741" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.8611111111111" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.8888888888889" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.4259259259259" style="1" customWidth="1"/>
+    <col min="16" max="16" width="32.4444444444444" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.86111111111111" style="1" customWidth="1"/>
     <col min="18" max="18" width="27" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1428571428571" style="1" customWidth="1"/>
-    <col min="20" max="16382" width="9.42857142857143" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1388888888889" style="1" customWidth="1"/>
+    <col min="20" max="16382" width="9.42592592592593" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:19">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="7"/>
       <c r="R4" s="6"/>
       <c r="S4" s="8"/>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="6"/>
       <c r="S5" s="8"/>
     </row>

--- a/test_cases/test_cases.xlsx
+++ b/test_cases/test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144"/>
+    <workbookView windowWidth="28125" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>TCID</t>
   </si>
@@ -73,10 +73,10 @@
     <t>API Timing</t>
   </si>
   <si>
-    <t>PRE_001</t>
-  </si>
-  <si>
-    <t>PRE_001_01</t>
+    <t>Position_01</t>
+  </si>
+  <si>
+    <t>Position_01_01</t>
   </si>
   <si>
     <t>positions</t>
@@ -91,13 +91,22 @@
     <t>tag1</t>
   </si>
   <si>
-    <t xml:space="preserve"> response[2].outbound.count=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> response[2].outbound.count</t>
-  </si>
-  <si>
-    <t>PRE_001_02</t>
+    <t>Exp Result=N/A:Not specified</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>response[2].outbound.count=0</t>
+  </si>
+  <si>
+    <t>2.05s</t>
+  </si>
+  <si>
+    <t>PRE_01</t>
+  </si>
+  <si>
+    <t>PRE_01_01</t>
   </si>
   <si>
     <t xml:space="preserve"> response[3].balance=57800.0</t>
@@ -106,13 +115,22 @@
     <t xml:space="preserve"> response[3].balance</t>
   </si>
   <si>
+    <t>response[3].balance=57800.0:PASS</t>
+  </si>
+  <si>
+    <t>response[3].balance=57800.0</t>
+  </si>
+  <si>
+    <t>2.04s</t>
+  </si>
+  <si>
     <t>TC001</t>
   </si>
   <si>
     <t>TC001_01</t>
   </si>
   <si>
-    <t>[test setup]PRE_001</t>
+    <t>[test setup]PRE_01</t>
   </si>
   <si>
     <t>pacs.008_inbound</t>
@@ -133,6 +151,9 @@
     <t>response.amount</t>
   </si>
   <si>
+    <t>response.amount=100:PASS</t>
+  </si>
+  <si>
     <t>TC001_02</t>
   </si>
   <si>
@@ -152,6 +173,30 @@
   </si>
   <si>
     <t>response.response.amount</t>
+  </si>
+  <si>
+    <t>response.response.amount=100.0:FAIL</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>response.response.amount=100.0</t>
+  </si>
+  <si>
+    <t>2.07s</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC002_01</t>
+  </si>
+  <si>
+    <t>[check with]Position_01</t>
+  </si>
+  <si>
+    <t>Position_01.amount=+100</t>
   </si>
 </sst>
 </file>
@@ -159,10 +204,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -205,6 +250,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -214,14 +288,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,15 +304,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,27 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -304,6 +350,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -311,39 +365,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,187 +409,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +614,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,30 +693,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -662,11 +709,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
@@ -693,31 +738,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
@@ -726,97 +771,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,30 +1217,31 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42592592592593" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.42857142857143" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.5740740740741" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1388888888889" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7142857142857" style="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.71296296296296" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5740740740741" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5740740740741" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5714285714286" style="1" customWidth="1"/>
     <col min="9" max="9" width="40.3333333333333" style="1" customWidth="1"/>
     <col min="10" max="10" width="5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.57407407407407" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5740740740741" style="1" customWidth="1"/>
-    <col min="13" max="13" width="33.8611111111111" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.8888888888889" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.4259259259259" style="1" customWidth="1"/>
-    <col min="16" max="16" width="32.4444444444444" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.86111111111111" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.57142857142857" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5714285714286" style="1" customWidth="1"/>
+    <col min="13" max="13" width="33.8571428571429" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.8857142857143" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.4285714285714" style="1" customWidth="1"/>
+    <col min="16" max="16" width="32.447619047619" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85714285714286" style="1" customWidth="1"/>
     <col min="18" max="18" width="27" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1388888888889" style="1" customWidth="1"/>
-    <col min="20" max="16382" width="9.42592592592593" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1428571428571" style="1" customWidth="1"/>
+    <col min="20" max="16382" width="9.42857142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:19">
@@ -1284,24 +1330,30 @@
       <c r="L2" s="3">
         <v>200</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5">
+        <v>200</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="8"/>
+      <c r="R2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:19">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1324,42 +1376,52 @@
         <v>200</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="O3" s="5">
+        <v>200</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" ht="31.5" customHeight="1" spans="1:19">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>23</v>
@@ -1371,40 +1433,50 @@
         <v>200</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="O4" s="5">
+        <v>200</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>23</v>
@@ -1416,16 +1488,71 @@
         <v>200</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="O5" s="5">
+        <v>200</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:19">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3">
+        <v>200</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="9" spans="17:17">
       <c r="Q9" s="10"/>
